--- a/data/trans_dic/IP16A11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Estudios-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,89; 49,78</t>
+          <t>7,46; 48,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,84; 53,49</t>
+          <t>9,19; 53,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,75; 41,69</t>
+          <t>12,82; 43,12</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,64; 40,01</t>
+          <t>24,54; 40,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,98; 47,37</t>
+          <t>28,06; 47,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,98; 41,31</t>
+          <t>28,94; 40,79</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,01; 48,93</t>
+          <t>22,94; 49,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 46,39</t>
+          <t>23,27; 47,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,27; 43,48</t>
+          <t>25,51; 42,72</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>25,87; 38,94</t>
+          <t>26,08; 38,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,16; 43,3</t>
+          <t>29,28; 44,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,18; 38,56</t>
+          <t>29,35; 38,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16A11_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP16A11_2023-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -503,12 +503,12 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="E1" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>23,53%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>21,84%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 48,54</t>
+          <t>3,85; 48,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,19; 53,68</t>
+          <t>7,19; 46,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,82; 43,12</t>
+          <t>8,6; 38,0</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>31,83%</t>
+          <t>32,36%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,1%</t>
+          <t>32,12%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>24,54; 40,96</t>
+          <t>17,35; 44,31</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>28,06; 47,25</t>
+          <t>24,97; 39,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,94; 40,79</t>
+          <t>21,7; 38,38</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,43%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>34,1%</t>
+          <t>34,89%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,94; 49,32</t>
+          <t>21,59; 46,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,27; 47,31</t>
+          <t>22,89; 48,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>25,51; 42,72</t>
+          <t>26,38; 44,22</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,8%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>32,06%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>34,07%</t>
+          <t>31,92%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>26,08; 38,0</t>
+          <t>19,31; 40,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,28; 44,19</t>
+          <t>25,86; 39,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>29,35; 38,91</t>
+          <t>24,16; 36,15</t>
         </is>
       </c>
     </row>
